--- a/biology/Médecine/Botriomycome/Botriomycome.xlsx
+++ b/biology/Médecine/Botriomycome/Botriomycome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un botriomycome (parfois écrit botryomycome) et aussi appelé granulome pyogénique ou hémangiome capillaire lobulé est une petite tumeur vasculaire inflammatoire bourgeonnante, saignant facilement, de couleur rouge vif, qui apparaît à la suite d'une petite plaie, souvent sur les doigts ou sur la main, en particulier lorsque celle-ci a subi un choc. Il peut aussi apparaître au bord d'un ongle incarné, notamment s'il y a eu frottement et irritation dans une chaussure trop étroite. 
@@ -515,7 +527,9 @@
           <t>Ambiguité sémantique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination granulome pyogénique ne devrait pas être employée, car elle recouvre une lésion qui n'est non un granulome, ni pyogénique (c'est-à-dire générant du pus).
 </t>
@@ -546,10 +560,12 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Surtout ne pas passer à côté d'un mélanome achromique. 
-Puis viennent la maladie de Kaposi, la tache rubis, l'angiome en touffes, l'hémangiome, l'angiome lobulé, l'angiome microcapillaire, l'angiome en cible hémosidérinique, la tumeur de Masson, l'angioendothéliomatose réactionnelle, l'angiome gloméruloïde, l'angiokératome, l'adénocarcinome papillaire digital, l'angiomatose bacillaire, la verrue péruvienne, les métastases cutanées ou muqueuses d'une néoplasie  viscérale, un tissu de granulation. Des réactions vasculaires sur des lésions d'herpès génital chronique ulcéré. Dans la bouche, un épulis, un mucocèle ou une diapneusie et rarement, une piqure d'insecte (ex cas exceptionnel de piqure de guêpe sur la muqueuse intérieure d'une narine, qui a induit un Botriomycome mimant une malignité et difficile à traiter car très vascularisé et source d'abondant saignement de nez[1]).
+Puis viennent la maladie de Kaposi, la tache rubis, l'angiome en touffes, l'hémangiome, l'angiome lobulé, l'angiome microcapillaire, l'angiome en cible hémosidérinique, la tumeur de Masson, l'angioendothéliomatose réactionnelle, l'angiome gloméruloïde, l'angiokératome, l'adénocarcinome papillaire digital, l'angiomatose bacillaire, la verrue péruvienne, les métastases cutanées ou muqueuses d'une néoplasie  viscérale, un tissu de granulation. Des réactions vasculaires sur des lésions d'herpès génital chronique ulcéré. Dans la bouche, un épulis, un mucocèle ou une diapneusie et rarement, une piqure d'insecte (ex cas exceptionnel de piqure de guêpe sur la muqueuse intérieure d'une narine, qui a induit un Botriomycome mimant une malignité et difficile à traiter car très vascularisé et source d'abondant saignement de nez).
 L'installation et la croissance rapide, ainsi qu'un traumatisme initial, permettent souvent d'affirmer le diagnostic. Toutefois l'examen histopathologique est toujours nécessaire.
 </t>
         </is>
